--- a/November/Others/Allocation Sheet.xlsx
+++ b/November/Others/Allocation Sheet.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="212" uniqueCount="125">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="213" uniqueCount="126">
   <si>
     <t>BL60</t>
   </si>
@@ -448,7 +448,10 @@
     <t>E95</t>
   </si>
   <si>
-    <t>Md Shohel Rana</t>
+    <t>Z20</t>
+  </si>
+  <si>
+    <t>Md Robiul Islam</t>
   </si>
 </sst>
 </file>
@@ -949,6 +952,45 @@
     <xf numFmtId="1" fontId="6" fillId="0" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="49" fontId="12" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1003,43 +1045,43 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1053,45 +1095,6 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -1493,7 +1496,7 @@
           </a:ln>
           <a:extLst>
             <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-              <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" w="9525">
+              <a14:hiddenLine xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
                 <a:solidFill>
                   <a:srgbClr val="000000"/>
                 </a:solidFill>
@@ -2593,7 +2596,7 @@
           </a:ln>
           <a:extLst>
             <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-              <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" w="9525">
+              <a14:hiddenLine xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
                 <a:solidFill>
                   <a:srgbClr val="000000"/>
                 </a:solidFill>
@@ -3039,7 +3042,7 @@
           </a:ln>
           <a:extLst>
             <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-              <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" w="9525">
+              <a14:hiddenLine xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
                 <a:solidFill>
                   <a:srgbClr val="000000"/>
                 </a:solidFill>
@@ -3110,7 +3113,7 @@
           </a:ln>
           <a:extLst>
             <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-              <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" w="9525">
+              <a14:hiddenLine xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
                 <a:solidFill>
                   <a:srgbClr val="000000"/>
                 </a:solidFill>
@@ -3184,7 +3187,7 @@
           </a:ln>
           <a:extLst>
             <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-              <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" w="9525">
+              <a14:hiddenLine xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
                 <a:solidFill>
                   <a:srgbClr val="000000"/>
                 </a:solidFill>
@@ -3255,7 +3258,7 @@
           </a:ln>
           <a:extLst>
             <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-              <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" w="9525">
+              <a14:hiddenLine xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
                 <a:solidFill>
                   <a:srgbClr val="000000"/>
                 </a:solidFill>
@@ -3917,8 +3920,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:U57"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="Q40" sqref="Q40"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M3" sqref="M3:O3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75"/>
@@ -3941,65 +3944,65 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="32.25" customHeight="1">
-      <c r="A1" s="75"/>
-      <c r="B1" s="75"/>
-      <c r="C1" s="75"/>
-      <c r="D1" s="75"/>
-      <c r="E1" s="75"/>
-      <c r="F1" s="71" t="s">
+      <c r="A1" s="63"/>
+      <c r="B1" s="63"/>
+      <c r="C1" s="63"/>
+      <c r="D1" s="63"/>
+      <c r="E1" s="63"/>
+      <c r="F1" s="59" t="s">
         <v>83</v>
       </c>
-      <c r="G1" s="71"/>
-      <c r="H1" s="71"/>
-      <c r="I1" s="71"/>
-      <c r="J1" s="71"/>
-      <c r="K1" s="75"/>
-      <c r="L1" s="75"/>
-      <c r="M1" s="75"/>
-      <c r="N1" s="75"/>
-      <c r="O1" s="75"/>
+      <c r="G1" s="59"/>
+      <c r="H1" s="59"/>
+      <c r="I1" s="59"/>
+      <c r="J1" s="59"/>
+      <c r="K1" s="63"/>
+      <c r="L1" s="63"/>
+      <c r="M1" s="63"/>
+      <c r="N1" s="63"/>
+      <c r="O1" s="63"/>
     </row>
     <row r="2" spans="1:15">
-      <c r="A2" s="79" t="s">
+      <c r="A2" s="54" t="s">
         <v>109</v>
       </c>
-      <c r="B2" s="79"/>
-      <c r="C2" s="79"/>
-      <c r="D2" s="79"/>
-      <c r="E2" s="79"/>
-      <c r="F2" s="79"/>
-      <c r="G2" s="79"/>
-      <c r="H2" s="79"/>
-      <c r="I2" s="79"/>
-      <c r="J2" s="79"/>
-      <c r="K2" s="79"/>
-      <c r="L2" s="79"/>
-      <c r="M2" s="79"/>
-      <c r="N2" s="79"/>
-      <c r="O2" s="79"/>
+      <c r="B2" s="54"/>
+      <c r="C2" s="54"/>
+      <c r="D2" s="54"/>
+      <c r="E2" s="54"/>
+      <c r="F2" s="54"/>
+      <c r="G2" s="54"/>
+      <c r="H2" s="54"/>
+      <c r="I2" s="54"/>
+      <c r="J2" s="54"/>
+      <c r="K2" s="54"/>
+      <c r="L2" s="54"/>
+      <c r="M2" s="54"/>
+      <c r="N2" s="54"/>
+      <c r="O2" s="54"/>
     </row>
     <row r="3" spans="1:15" ht="21.75" customHeight="1" thickBot="1">
       <c r="A3" s="31" t="s">
         <v>69</v>
       </c>
-      <c r="B3" s="72"/>
-      <c r="C3" s="73"/>
-      <c r="D3" s="74"/>
+      <c r="B3" s="60"/>
+      <c r="C3" s="61"/>
+      <c r="D3" s="62"/>
       <c r="E3" s="28"/>
       <c r="F3" s="28"/>
       <c r="G3" s="28"/>
       <c r="H3" s="28"/>
       <c r="I3" s="28"/>
       <c r="J3" s="28"/>
-      <c r="K3" s="76" t="s">
+      <c r="K3" s="64" t="s">
         <v>110</v>
       </c>
-      <c r="L3" s="76"/>
-      <c r="M3" s="77" t="s">
-        <v>124</v>
-      </c>
-      <c r="N3" s="77"/>
-      <c r="O3" s="77"/>
+      <c r="L3" s="64"/>
+      <c r="M3" s="65" t="s">
+        <v>125</v>
+      </c>
+      <c r="N3" s="65"/>
+      <c r="O3" s="65"/>
     </row>
     <row r="4" spans="1:15" ht="19.5" customHeight="1" thickTop="1">
       <c r="A4" s="50" t="s">
@@ -4947,9 +4950,15 @@
       <c r="F35" s="38"/>
       <c r="G35" s="38"/>
       <c r="H35" s="38"/>
-      <c r="I35" s="43"/>
-      <c r="J35" s="39"/>
-      <c r="K35" s="38"/>
+      <c r="I35" s="43" t="s">
+        <v>124</v>
+      </c>
+      <c r="J35" s="39">
+        <v>8310</v>
+      </c>
+      <c r="K35" s="38">
+        <v>8990</v>
+      </c>
       <c r="L35" s="38"/>
       <c r="M35" s="38"/>
       <c r="N35" s="38"/>
@@ -4970,14 +4979,14 @@
       <c r="F36" s="38"/>
       <c r="G36" s="38"/>
       <c r="H36" s="38"/>
-      <c r="I36" s="78" t="s">
+      <c r="I36" s="53" t="s">
         <v>12</v>
       </c>
-      <c r="J36" s="78"/>
+      <c r="J36" s="53"/>
       <c r="K36" s="38"/>
       <c r="L36" s="38"/>
-      <c r="M36" s="78"/>
-      <c r="N36" s="78"/>
+      <c r="M36" s="53"/>
+      <c r="N36" s="53"/>
       <c r="O36" s="41"/>
     </row>
     <row r="37" spans="1:15" ht="19.5" customHeight="1">
@@ -4995,13 +5004,13 @@
       <c r="F37" s="38"/>
       <c r="G37" s="38"/>
       <c r="H37" s="38"/>
-      <c r="I37" s="78"/>
-      <c r="J37" s="78"/>
-      <c r="K37" s="78"/>
-      <c r="L37" s="78"/>
-      <c r="M37" s="78"/>
-      <c r="N37" s="78"/>
-      <c r="O37" s="78"/>
+      <c r="I37" s="53"/>
+      <c r="J37" s="53"/>
+      <c r="K37" s="53"/>
+      <c r="L37" s="53"/>
+      <c r="M37" s="53"/>
+      <c r="N37" s="53"/>
+      <c r="O37" s="53"/>
     </row>
     <row r="38" spans="1:15" ht="19.5" customHeight="1">
       <c r="A38" s="45" t="s">
@@ -5018,15 +5027,15 @@
       <c r="F38" s="38"/>
       <c r="G38" s="38"/>
       <c r="H38" s="38"/>
-      <c r="I38" s="80" t="s">
+      <c r="I38" s="55" t="s">
         <v>8</v>
       </c>
-      <c r="J38" s="80"/>
-      <c r="K38" s="80"/>
-      <c r="L38" s="80"/>
-      <c r="M38" s="80"/>
-      <c r="N38" s="80"/>
-      <c r="O38" s="81"/>
+      <c r="J38" s="55"/>
+      <c r="K38" s="55"/>
+      <c r="L38" s="55"/>
+      <c r="M38" s="55"/>
+      <c r="N38" s="55"/>
+      <c r="O38" s="56"/>
     </row>
     <row r="39" spans="1:15" ht="19.5" customHeight="1">
       <c r="A39" s="45" t="s">
@@ -5049,13 +5058,13 @@
       <c r="J39" s="40" t="s">
         <v>9</v>
       </c>
-      <c r="K39" s="78" t="s">
+      <c r="K39" s="53" t="s">
         <v>10</v>
       </c>
-      <c r="L39" s="78"/>
-      <c r="M39" s="78"/>
-      <c r="N39" s="78"/>
-      <c r="O39" s="82"/>
+      <c r="L39" s="53"/>
+      <c r="M39" s="53"/>
+      <c r="N39" s="53"/>
+      <c r="O39" s="57"/>
     </row>
     <row r="40" spans="1:15" ht="19.5" customHeight="1">
       <c r="A40" s="45" t="s">
@@ -5080,7 +5089,7 @@
       <c r="L40" s="38"/>
       <c r="M40" s="38"/>
       <c r="N40" s="38"/>
-      <c r="O40" s="82"/>
+      <c r="O40" s="57"/>
     </row>
     <row r="41" spans="1:15" ht="19.5" customHeight="1">
       <c r="A41" s="45" t="s">
@@ -5105,7 +5114,7 @@
       <c r="L41" s="38"/>
       <c r="M41" s="38"/>
       <c r="N41" s="38"/>
-      <c r="O41" s="82"/>
+      <c r="O41" s="57"/>
     </row>
     <row r="42" spans="1:15" ht="19.5" customHeight="1">
       <c r="A42" s="45" t="s">
@@ -5130,7 +5139,7 @@
       <c r="L42" s="38"/>
       <c r="M42" s="38"/>
       <c r="N42" s="38"/>
-      <c r="O42" s="82"/>
+      <c r="O42" s="57"/>
     </row>
     <row r="43" spans="1:15" ht="19.5" customHeight="1">
       <c r="A43" s="45" t="s">
@@ -5155,7 +5164,7 @@
       <c r="L43" s="38"/>
       <c r="M43" s="38"/>
       <c r="N43" s="38"/>
-      <c r="O43" s="82"/>
+      <c r="O43" s="57"/>
     </row>
     <row r="44" spans="1:15" ht="19.5" customHeight="1">
       <c r="A44" s="44" t="s">
@@ -5180,7 +5189,7 @@
       <c r="L44" s="38"/>
       <c r="M44" s="38"/>
       <c r="N44" s="38"/>
-      <c r="O44" s="82"/>
+      <c r="O44" s="57"/>
     </row>
     <row r="45" spans="1:15" ht="19.5" customHeight="1">
       <c r="A45" s="45" t="s">
@@ -5205,7 +5214,7 @@
       <c r="L45" s="38"/>
       <c r="M45" s="38"/>
       <c r="N45" s="38"/>
-      <c r="O45" s="82"/>
+      <c r="O45" s="57"/>
     </row>
     <row r="46" spans="1:15" ht="19.5" customHeight="1">
       <c r="A46" s="45"/>
@@ -5224,7 +5233,7 @@
       <c r="L46" s="38"/>
       <c r="M46" s="38"/>
       <c r="N46" s="38"/>
-      <c r="O46" s="82"/>
+      <c r="O46" s="57"/>
     </row>
     <row r="47" spans="1:15" ht="19.5" customHeight="1">
       <c r="A47" s="45"/>
@@ -5243,7 +5252,7 @@
       <c r="L47" s="38"/>
       <c r="M47" s="38"/>
       <c r="N47" s="38"/>
-      <c r="O47" s="82"/>
+      <c r="O47" s="57"/>
     </row>
     <row r="48" spans="1:15" ht="19.5" customHeight="1">
       <c r="A48" s="44"/>
@@ -5262,47 +5271,47 @@
       <c r="L48" s="38"/>
       <c r="M48" s="38"/>
       <c r="N48" s="38"/>
-      <c r="O48" s="83"/>
+      <c r="O48" s="58"/>
     </row>
     <row r="49" spans="1:16">
-      <c r="A49" s="53" t="s">
+      <c r="A49" s="66" t="s">
         <v>107</v>
       </c>
-      <c r="B49" s="54"/>
-      <c r="C49" s="54"/>
+      <c r="B49" s="67"/>
+      <c r="C49" s="67"/>
       <c r="D49" s="32"/>
-      <c r="E49" s="57" t="s">
+      <c r="E49" s="70" t="s">
         <v>108</v>
       </c>
-      <c r="F49" s="57"/>
-      <c r="G49" s="57"/>
-      <c r="H49" s="57"/>
-      <c r="I49" s="57"/>
-      <c r="J49" s="57"/>
-      <c r="K49" s="57"/>
+      <c r="F49" s="70"/>
+      <c r="G49" s="70"/>
+      <c r="H49" s="70"/>
+      <c r="I49" s="70"/>
+      <c r="J49" s="70"/>
+      <c r="K49" s="70"/>
       <c r="L49" s="32"/>
-      <c r="M49" s="59" t="s">
+      <c r="M49" s="72" t="s">
         <v>106</v>
       </c>
-      <c r="N49" s="59"/>
-      <c r="O49" s="60"/>
+      <c r="N49" s="72"/>
+      <c r="O49" s="73"/>
     </row>
     <row r="50" spans="1:16" ht="15.75" customHeight="1">
-      <c r="A50" s="55"/>
-      <c r="B50" s="56"/>
-      <c r="C50" s="56"/>
+      <c r="A50" s="68"/>
+      <c r="B50" s="69"/>
+      <c r="C50" s="69"/>
       <c r="D50" s="33"/>
-      <c r="E50" s="58"/>
-      <c r="F50" s="58"/>
-      <c r="G50" s="58"/>
-      <c r="H50" s="58"/>
-      <c r="I50" s="58"/>
-      <c r="J50" s="58"/>
-      <c r="K50" s="58"/>
+      <c r="E50" s="71"/>
+      <c r="F50" s="71"/>
+      <c r="G50" s="71"/>
+      <c r="H50" s="71"/>
+      <c r="I50" s="71"/>
+      <c r="J50" s="71"/>
+      <c r="K50" s="71"/>
       <c r="L50" s="33"/>
-      <c r="M50" s="61"/>
-      <c r="N50" s="61"/>
-      <c r="O50" s="62"/>
+      <c r="M50" s="74"/>
+      <c r="N50" s="74"/>
+      <c r="O50" s="75"/>
     </row>
     <row r="51" spans="1:16">
       <c r="A51" s="29"/>
@@ -5322,27 +5331,27 @@
       <c r="O51" s="30"/>
     </row>
     <row r="52" spans="1:16">
-      <c r="A52" s="63" t="s">
+      <c r="A52" s="76" t="s">
         <v>112</v>
       </c>
-      <c r="B52" s="63"/>
-      <c r="C52" s="63"/>
+      <c r="B52" s="76"/>
+      <c r="C52" s="76"/>
       <c r="D52" s="35"/>
       <c r="E52" s="29"/>
       <c r="F52" s="29"/>
-      <c r="G52" s="65" t="s">
+      <c r="G52" s="78" t="s">
         <v>114</v>
       </c>
-      <c r="H52" s="66"/>
-      <c r="I52" s="67"/>
+      <c r="H52" s="79"/>
+      <c r="I52" s="80"/>
       <c r="J52" s="29"/>
       <c r="K52" s="29"/>
       <c r="L52" s="35"/>
-      <c r="M52" s="64" t="s">
+      <c r="M52" s="77" t="s">
         <v>113</v>
       </c>
-      <c r="N52" s="64"/>
-      <c r="O52" s="64"/>
+      <c r="N52" s="77"/>
+      <c r="O52" s="77"/>
     </row>
     <row r="53" spans="1:16">
       <c r="A53" s="34"/>
@@ -5351,9 +5360,9 @@
       <c r="D53" s="35"/>
       <c r="E53" s="29"/>
       <c r="F53" s="29"/>
-      <c r="G53" s="68"/>
-      <c r="H53" s="69"/>
-      <c r="I53" s="70"/>
+      <c r="G53" s="81"/>
+      <c r="H53" s="82"/>
+      <c r="I53" s="83"/>
       <c r="J53" s="29"/>
       <c r="K53" s="29"/>
       <c r="L53" s="35"/>
@@ -5366,6 +5375,18 @@
     </row>
   </sheetData>
   <mergeCells count="19">
+    <mergeCell ref="A49:C50"/>
+    <mergeCell ref="E49:K50"/>
+    <mergeCell ref="M49:O50"/>
+    <mergeCell ref="A52:C52"/>
+    <mergeCell ref="M52:O52"/>
+    <mergeCell ref="G52:I53"/>
+    <mergeCell ref="F1:J1"/>
+    <mergeCell ref="B3:D3"/>
+    <mergeCell ref="K1:O1"/>
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="K3:L3"/>
+    <mergeCell ref="M3:O3"/>
     <mergeCell ref="I36:J36"/>
     <mergeCell ref="M36:N36"/>
     <mergeCell ref="A2:O2"/>
@@ -5373,18 +5394,6 @@
     <mergeCell ref="I38:N38"/>
     <mergeCell ref="O38:O48"/>
     <mergeCell ref="K39:N39"/>
-    <mergeCell ref="F1:J1"/>
-    <mergeCell ref="B3:D3"/>
-    <mergeCell ref="K1:O1"/>
-    <mergeCell ref="A1:E1"/>
-    <mergeCell ref="K3:L3"/>
-    <mergeCell ref="M3:O3"/>
-    <mergeCell ref="A49:C50"/>
-    <mergeCell ref="E49:K50"/>
-    <mergeCell ref="M49:O50"/>
-    <mergeCell ref="A52:C52"/>
-    <mergeCell ref="M52:O52"/>
-    <mergeCell ref="G52:I53"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0" right="0" top="0" bottom="0.2" header="0" footer="0"/>
@@ -5421,73 +5430,73 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="32.25" customHeight="1">
-      <c r="A1" s="96" t="s">
+      <c r="A1" s="86" t="s">
         <v>100</v>
       </c>
-      <c r="B1" s="97"/>
-      <c r="C1" s="97"/>
-      <c r="D1" s="97"/>
-      <c r="E1" s="97"/>
-      <c r="F1" s="98" t="s">
+      <c r="B1" s="87"/>
+      <c r="C1" s="87"/>
+      <c r="D1" s="87"/>
+      <c r="E1" s="87"/>
+      <c r="F1" s="88" t="s">
         <v>83</v>
       </c>
-      <c r="G1" s="98"/>
-      <c r="H1" s="98"/>
-      <c r="I1" s="98"/>
-      <c r="J1" s="98"/>
-      <c r="K1" s="96" t="s">
+      <c r="G1" s="88"/>
+      <c r="H1" s="88"/>
+      <c r="I1" s="88"/>
+      <c r="J1" s="88"/>
+      <c r="K1" s="86" t="s">
         <v>85</v>
       </c>
-      <c r="L1" s="96"/>
-      <c r="M1" s="96"/>
-      <c r="N1" s="96"/>
-      <c r="O1" s="96"/>
+      <c r="L1" s="86"/>
+      <c r="M1" s="86"/>
+      <c r="N1" s="86"/>
+      <c r="O1" s="86"/>
     </row>
     <row r="2" spans="1:15">
-      <c r="A2" s="99" t="s">
+      <c r="A2" s="89" t="s">
         <v>64</v>
       </c>
-      <c r="B2" s="99"/>
-      <c r="C2" s="99"/>
-      <c r="D2" s="99"/>
-      <c r="E2" s="99"/>
-      <c r="F2" s="99"/>
-      <c r="G2" s="99"/>
-      <c r="H2" s="99"/>
-      <c r="I2" s="99"/>
-      <c r="J2" s="99"/>
-      <c r="K2" s="99"/>
-      <c r="L2" s="99"/>
-      <c r="M2" s="99"/>
-      <c r="N2" s="99"/>
-      <c r="O2" s="99"/>
+      <c r="B2" s="89"/>
+      <c r="C2" s="89"/>
+      <c r="D2" s="89"/>
+      <c r="E2" s="89"/>
+      <c r="F2" s="89"/>
+      <c r="G2" s="89"/>
+      <c r="H2" s="89"/>
+      <c r="I2" s="89"/>
+      <c r="J2" s="89"/>
+      <c r="K2" s="89"/>
+      <c r="L2" s="89"/>
+      <c r="M2" s="89"/>
+      <c r="N2" s="89"/>
+      <c r="O2" s="89"/>
     </row>
     <row r="3" spans="1:15" s="5" customFormat="1" ht="14.25" customHeight="1">
-      <c r="A3" s="100" t="s">
+      <c r="A3" s="90" t="s">
         <v>65</v>
       </c>
-      <c r="B3" s="100"/>
-      <c r="C3" s="100"/>
-      <c r="D3" s="100"/>
-      <c r="E3" s="100"/>
-      <c r="F3" s="100"/>
-      <c r="G3" s="100"/>
-      <c r="H3" s="100"/>
-      <c r="I3" s="100"/>
-      <c r="J3" s="100"/>
-      <c r="K3" s="100"/>
-      <c r="L3" s="100"/>
-      <c r="M3" s="100"/>
-      <c r="N3" s="100"/>
-      <c r="O3" s="100"/>
+      <c r="B3" s="90"/>
+      <c r="C3" s="90"/>
+      <c r="D3" s="90"/>
+      <c r="E3" s="90"/>
+      <c r="F3" s="90"/>
+      <c r="G3" s="90"/>
+      <c r="H3" s="90"/>
+      <c r="I3" s="90"/>
+      <c r="J3" s="90"/>
+      <c r="K3" s="90"/>
+      <c r="L3" s="90"/>
+      <c r="M3" s="90"/>
+      <c r="N3" s="90"/>
+      <c r="O3" s="90"/>
     </row>
     <row r="4" spans="1:15" ht="21.75" customHeight="1" thickBot="1">
-      <c r="A4" s="94" t="s">
+      <c r="A4" s="84" t="s">
         <v>69</v>
       </c>
-      <c r="B4" s="94"/>
-      <c r="C4" s="94"/>
-      <c r="D4" s="94"/>
+      <c r="B4" s="84"/>
+      <c r="C4" s="84"/>
+      <c r="D4" s="84"/>
       <c r="E4" s="2"/>
       <c r="F4" s="2"/>
       <c r="G4" s="2"/>
@@ -5495,12 +5504,12 @@
       <c r="I4" s="1"/>
       <c r="J4" s="1"/>
       <c r="K4" s="1"/>
-      <c r="L4" s="95" t="s">
+      <c r="L4" s="85" t="s">
         <v>101</v>
       </c>
-      <c r="M4" s="95"/>
-      <c r="N4" s="95"/>
-      <c r="O4" s="95"/>
+      <c r="M4" s="85"/>
+      <c r="N4" s="85"/>
+      <c r="O4" s="85"/>
     </row>
     <row r="5" spans="1:15" ht="16.5" thickTop="1">
       <c r="A5" s="6" t="s">
@@ -6604,14 +6613,14 @@
       <c r="F44" s="4"/>
       <c r="G44" s="4"/>
       <c r="H44" s="4"/>
-      <c r="I44" s="88" t="s">
+      <c r="I44" s="91" t="s">
         <v>12</v>
       </c>
-      <c r="J44" s="89"/>
+      <c r="J44" s="92"/>
       <c r="K44" s="4"/>
       <c r="L44" s="4"/>
-      <c r="M44" s="88"/>
-      <c r="N44" s="88"/>
+      <c r="M44" s="91"/>
+      <c r="N44" s="91"/>
       <c r="O44" s="16"/>
     </row>
     <row r="45" spans="1:15" ht="15.95" customHeight="1">
@@ -6629,13 +6638,13 @@
       <c r="F45" s="4"/>
       <c r="G45" s="4"/>
       <c r="H45" s="4"/>
-      <c r="I45" s="88"/>
-      <c r="J45" s="88"/>
-      <c r="K45" s="88"/>
-      <c r="L45" s="88"/>
-      <c r="M45" s="88"/>
-      <c r="N45" s="88"/>
-      <c r="O45" s="88"/>
+      <c r="I45" s="91"/>
+      <c r="J45" s="91"/>
+      <c r="K45" s="91"/>
+      <c r="L45" s="91"/>
+      <c r="M45" s="91"/>
+      <c r="N45" s="91"/>
+      <c r="O45" s="91"/>
     </row>
     <row r="46" spans="1:15" ht="15.95" customHeight="1">
       <c r="A46" s="9" t="s">
@@ -6652,15 +6661,15 @@
       <c r="F46" s="4"/>
       <c r="G46" s="4"/>
       <c r="H46" s="4"/>
-      <c r="I46" s="90" t="s">
+      <c r="I46" s="93" t="s">
         <v>8</v>
       </c>
-      <c r="J46" s="90"/>
-      <c r="K46" s="90"/>
-      <c r="L46" s="90"/>
-      <c r="M46" s="90"/>
-      <c r="N46" s="90"/>
-      <c r="O46" s="91"/>
+      <c r="J46" s="93"/>
+      <c r="K46" s="93"/>
+      <c r="L46" s="93"/>
+      <c r="M46" s="93"/>
+      <c r="N46" s="93"/>
+      <c r="O46" s="94"/>
     </row>
     <row r="47" spans="1:15" ht="15.95" customHeight="1">
       <c r="A47" s="9" t="s">
@@ -6683,13 +6692,13 @@
       <c r="J47" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="K47" s="88" t="s">
+      <c r="K47" s="91" t="s">
         <v>10</v>
       </c>
-      <c r="L47" s="88"/>
-      <c r="M47" s="88"/>
-      <c r="N47" s="88"/>
-      <c r="O47" s="92"/>
+      <c r="L47" s="91"/>
+      <c r="M47" s="91"/>
+      <c r="N47" s="91"/>
+      <c r="O47" s="95"/>
     </row>
     <row r="48" spans="1:15" ht="15.95" customHeight="1">
       <c r="A48" s="9" t="s">
@@ -6714,7 +6723,7 @@
       <c r="L48" s="4"/>
       <c r="M48" s="4"/>
       <c r="N48" s="4"/>
-      <c r="O48" s="92"/>
+      <c r="O48" s="95"/>
     </row>
     <row r="49" spans="1:15" ht="15.95" customHeight="1">
       <c r="A49" s="9" t="s">
@@ -6739,7 +6748,7 @@
       <c r="L49" s="4"/>
       <c r="M49" s="4"/>
       <c r="N49" s="4"/>
-      <c r="O49" s="92"/>
+      <c r="O49" s="95"/>
     </row>
     <row r="50" spans="1:15" ht="15.95" customHeight="1">
       <c r="A50" s="4" t="s">
@@ -6764,7 +6773,7 @@
       <c r="L50" s="4"/>
       <c r="M50" s="4"/>
       <c r="N50" s="4"/>
-      <c r="O50" s="92"/>
+      <c r="O50" s="95"/>
     </row>
     <row r="51" spans="1:15" ht="15.95" customHeight="1">
       <c r="A51" s="4" t="s">
@@ -6789,7 +6798,7 @@
       <c r="L51" s="4"/>
       <c r="M51" s="4"/>
       <c r="N51" s="4"/>
-      <c r="O51" s="92"/>
+      <c r="O51" s="95"/>
     </row>
     <row r="52" spans="1:15" ht="15.95" customHeight="1">
       <c r="A52" s="4" t="s">
@@ -6814,7 +6823,7 @@
       <c r="L52" s="4"/>
       <c r="M52" s="4"/>
       <c r="N52" s="4"/>
-      <c r="O52" s="92"/>
+      <c r="O52" s="95"/>
     </row>
     <row r="53" spans="1:15" ht="15.95" customHeight="1">
       <c r="A53" s="4" t="s">
@@ -6839,7 +6848,7 @@
       <c r="L53" s="4"/>
       <c r="M53" s="4"/>
       <c r="N53" s="4"/>
-      <c r="O53" s="92"/>
+      <c r="O53" s="95"/>
     </row>
     <row r="54" spans="1:15" ht="15.95" customHeight="1">
       <c r="A54" s="4" t="s">
@@ -6864,7 +6873,7 @@
       <c r="L54" s="4"/>
       <c r="M54" s="4"/>
       <c r="N54" s="4"/>
-      <c r="O54" s="92"/>
+      <c r="O54" s="95"/>
     </row>
     <row r="55" spans="1:15" ht="15.95" customHeight="1">
       <c r="A55" s="4" t="s">
@@ -6889,7 +6898,7 @@
       <c r="L55" s="4"/>
       <c r="M55" s="4"/>
       <c r="N55" s="4"/>
-      <c r="O55" s="92"/>
+      <c r="O55" s="95"/>
     </row>
     <row r="56" spans="1:15" ht="15.95" customHeight="1">
       <c r="A56" s="9" t="s">
@@ -6914,7 +6923,7 @@
       <c r="L56" s="4"/>
       <c r="M56" s="4"/>
       <c r="N56" s="4"/>
-      <c r="O56" s="93"/>
+      <c r="O56" s="96"/>
     </row>
     <row r="57" spans="1:15">
       <c r="A57" s="17"/>
@@ -6934,49 +6943,49 @@
       <c r="O57" s="20"/>
     </row>
     <row r="58" spans="1:15">
-      <c r="A58" s="84" t="s">
+      <c r="A58" s="97" t="s">
         <v>60</v>
       </c>
-      <c r="B58" s="84"/>
-      <c r="C58" s="84"/>
+      <c r="B58" s="97"/>
+      <c r="C58" s="97"/>
       <c r="D58" s="21"/>
       <c r="E58" s="22"/>
-      <c r="F58" s="87" t="s">
+      <c r="F58" s="100" t="s">
         <v>96</v>
       </c>
-      <c r="G58" s="87"/>
-      <c r="H58" s="87"/>
-      <c r="I58" s="87"/>
-      <c r="J58" s="87"/>
-      <c r="K58" s="87"/>
+      <c r="G58" s="100"/>
+      <c r="H58" s="100"/>
+      <c r="I58" s="100"/>
+      <c r="J58" s="100"/>
+      <c r="K58" s="100"/>
       <c r="L58" s="21"/>
       <c r="M58" s="22"/>
-      <c r="N58" s="85" t="s">
+      <c r="N58" s="98" t="s">
         <v>62</v>
       </c>
-      <c r="O58" s="85"/>
+      <c r="O58" s="98"/>
     </row>
     <row r="59" spans="1:15">
-      <c r="A59" s="86"/>
-      <c r="B59" s="86"/>
-      <c r="C59" s="86"/>
+      <c r="A59" s="99"/>
+      <c r="B59" s="99"/>
+      <c r="C59" s="99"/>
       <c r="D59" s="23"/>
       <c r="E59" s="17"/>
-      <c r="F59" s="87"/>
-      <c r="G59" s="87"/>
-      <c r="H59" s="87"/>
-      <c r="I59" s="87"/>
-      <c r="J59" s="87"/>
-      <c r="K59" s="87"/>
+      <c r="F59" s="100"/>
+      <c r="G59" s="100"/>
+      <c r="H59" s="100"/>
+      <c r="I59" s="100"/>
+      <c r="J59" s="100"/>
+      <c r="K59" s="100"/>
       <c r="L59" s="23"/>
       <c r="M59" s="17"/>
-      <c r="N59" s="86"/>
-      <c r="O59" s="86"/>
+      <c r="N59" s="99"/>
+      <c r="O59" s="99"/>
     </row>
     <row r="60" spans="1:15">
-      <c r="A60" s="86"/>
-      <c r="B60" s="86"/>
-      <c r="C60" s="86"/>
+      <c r="A60" s="99"/>
+      <c r="B60" s="99"/>
+      <c r="C60" s="99"/>
       <c r="D60" s="23"/>
       <c r="E60" s="17"/>
       <c r="F60" s="17"/>
@@ -6987,15 +6996,15 @@
       <c r="K60" s="23"/>
       <c r="L60" s="23"/>
       <c r="M60" s="17"/>
-      <c r="N60" s="86"/>
-      <c r="O60" s="86"/>
+      <c r="N60" s="99"/>
+      <c r="O60" s="99"/>
     </row>
     <row r="61" spans="1:15">
-      <c r="A61" s="84" t="s">
+      <c r="A61" s="97" t="s">
         <v>61</v>
       </c>
-      <c r="B61" s="84"/>
-      <c r="C61" s="84"/>
+      <c r="B61" s="97"/>
+      <c r="C61" s="97"/>
       <c r="D61" s="21"/>
       <c r="E61" s="21"/>
       <c r="F61" s="21"/>
@@ -7006,11 +7015,24 @@
       <c r="K61" s="21"/>
       <c r="L61" s="21"/>
       <c r="M61" s="25"/>
-      <c r="N61" s="85"/>
-      <c r="O61" s="85"/>
+      <c r="N61" s="98"/>
+      <c r="O61" s="98"/>
     </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="A58:C58"/>
+    <mergeCell ref="N58:O58"/>
+    <mergeCell ref="A59:C60"/>
+    <mergeCell ref="N59:O60"/>
+    <mergeCell ref="A61:C61"/>
+    <mergeCell ref="N61:O61"/>
+    <mergeCell ref="F58:K59"/>
+    <mergeCell ref="I44:J44"/>
+    <mergeCell ref="M44:N44"/>
+    <mergeCell ref="I45:O45"/>
+    <mergeCell ref="I46:N46"/>
+    <mergeCell ref="O46:O56"/>
+    <mergeCell ref="K47:N47"/>
     <mergeCell ref="A4:D4"/>
     <mergeCell ref="L4:O4"/>
     <mergeCell ref="A1:E1"/>
@@ -7018,19 +7040,6 @@
     <mergeCell ref="K1:O1"/>
     <mergeCell ref="A2:O2"/>
     <mergeCell ref="A3:O3"/>
-    <mergeCell ref="I44:J44"/>
-    <mergeCell ref="M44:N44"/>
-    <mergeCell ref="I45:O45"/>
-    <mergeCell ref="I46:N46"/>
-    <mergeCell ref="O46:O56"/>
-    <mergeCell ref="K47:N47"/>
-    <mergeCell ref="A58:C58"/>
-    <mergeCell ref="N58:O58"/>
-    <mergeCell ref="A59:C60"/>
-    <mergeCell ref="N59:O60"/>
-    <mergeCell ref="A61:C61"/>
-    <mergeCell ref="N61:O61"/>
-    <mergeCell ref="F58:K59"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/November/Others/Allocation Sheet.xlsx
+++ b/November/Others/Allocation Sheet.xlsx
@@ -451,7 +451,7 @@
     <t>Z20</t>
   </si>
   <si>
-    <t>Md Robiul Islam</t>
+    <t>Md Shohel Rana</t>
   </si>
 </sst>
 </file>
@@ -952,6 +952,81 @@
     <xf numFmtId="1" fontId="6" fillId="0" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="12" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="12" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="12" fillId="4" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="12" fillId="4" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -970,80 +1045,35 @@
     <xf numFmtId="0" fontId="19" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="12" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="12" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="12" fillId="4" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="12" fillId="4" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -1065,36 +1095,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -1496,7 +1496,7 @@
           </a:ln>
           <a:extLst>
             <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-              <a14:hiddenLine xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
+              <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" w="9525">
                 <a:solidFill>
                   <a:srgbClr val="000000"/>
                 </a:solidFill>
@@ -2596,7 +2596,7 @@
           </a:ln>
           <a:extLst>
             <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-              <a14:hiddenLine xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
+              <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" w="9525">
                 <a:solidFill>
                   <a:srgbClr val="000000"/>
                 </a:solidFill>
@@ -3042,7 +3042,7 @@
           </a:ln>
           <a:extLst>
             <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-              <a14:hiddenLine xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
+              <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" w="9525">
                 <a:solidFill>
                   <a:srgbClr val="000000"/>
                 </a:solidFill>
@@ -3113,7 +3113,7 @@
           </a:ln>
           <a:extLst>
             <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-              <a14:hiddenLine xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
+              <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" w="9525">
                 <a:solidFill>
                   <a:srgbClr val="000000"/>
                 </a:solidFill>
@@ -3187,7 +3187,7 @@
           </a:ln>
           <a:extLst>
             <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-              <a14:hiddenLine xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
+              <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" w="9525">
                 <a:solidFill>
                   <a:srgbClr val="000000"/>
                 </a:solidFill>
@@ -3258,7 +3258,7 @@
           </a:ln>
           <a:extLst>
             <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-              <a14:hiddenLine xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
+              <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" w="9525">
                 <a:solidFill>
                   <a:srgbClr val="000000"/>
                 </a:solidFill>
@@ -3921,7 +3921,7 @@
   <dimension ref="A1:U57"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M3" sqref="M3:O3"/>
+      <selection activeCell="O53" sqref="A1:O53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75"/>
@@ -3944,65 +3944,65 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="32.25" customHeight="1">
-      <c r="A1" s="63"/>
-      <c r="B1" s="63"/>
-      <c r="C1" s="63"/>
-      <c r="D1" s="63"/>
-      <c r="E1" s="63"/>
-      <c r="F1" s="59" t="s">
+      <c r="A1" s="75"/>
+      <c r="B1" s="75"/>
+      <c r="C1" s="75"/>
+      <c r="D1" s="75"/>
+      <c r="E1" s="75"/>
+      <c r="F1" s="71" t="s">
         <v>83</v>
       </c>
-      <c r="G1" s="59"/>
-      <c r="H1" s="59"/>
-      <c r="I1" s="59"/>
-      <c r="J1" s="59"/>
-      <c r="K1" s="63"/>
-      <c r="L1" s="63"/>
-      <c r="M1" s="63"/>
-      <c r="N1" s="63"/>
-      <c r="O1" s="63"/>
+      <c r="G1" s="71"/>
+      <c r="H1" s="71"/>
+      <c r="I1" s="71"/>
+      <c r="J1" s="71"/>
+      <c r="K1" s="75"/>
+      <c r="L1" s="75"/>
+      <c r="M1" s="75"/>
+      <c r="N1" s="75"/>
+      <c r="O1" s="75"/>
     </row>
     <row r="2" spans="1:15">
-      <c r="A2" s="54" t="s">
+      <c r="A2" s="79" t="s">
         <v>109</v>
       </c>
-      <c r="B2" s="54"/>
-      <c r="C2" s="54"/>
-      <c r="D2" s="54"/>
-      <c r="E2" s="54"/>
-      <c r="F2" s="54"/>
-      <c r="G2" s="54"/>
-      <c r="H2" s="54"/>
-      <c r="I2" s="54"/>
-      <c r="J2" s="54"/>
-      <c r="K2" s="54"/>
-      <c r="L2" s="54"/>
-      <c r="M2" s="54"/>
-      <c r="N2" s="54"/>
-      <c r="O2" s="54"/>
+      <c r="B2" s="79"/>
+      <c r="C2" s="79"/>
+      <c r="D2" s="79"/>
+      <c r="E2" s="79"/>
+      <c r="F2" s="79"/>
+      <c r="G2" s="79"/>
+      <c r="H2" s="79"/>
+      <c r="I2" s="79"/>
+      <c r="J2" s="79"/>
+      <c r="K2" s="79"/>
+      <c r="L2" s="79"/>
+      <c r="M2" s="79"/>
+      <c r="N2" s="79"/>
+      <c r="O2" s="79"/>
     </row>
     <row r="3" spans="1:15" ht="21.75" customHeight="1" thickBot="1">
       <c r="A3" s="31" t="s">
         <v>69</v>
       </c>
-      <c r="B3" s="60"/>
-      <c r="C3" s="61"/>
-      <c r="D3" s="62"/>
+      <c r="B3" s="72"/>
+      <c r="C3" s="73"/>
+      <c r="D3" s="74"/>
       <c r="E3" s="28"/>
       <c r="F3" s="28"/>
       <c r="G3" s="28"/>
       <c r="H3" s="28"/>
       <c r="I3" s="28"/>
       <c r="J3" s="28"/>
-      <c r="K3" s="64" t="s">
+      <c r="K3" s="76" t="s">
         <v>110</v>
       </c>
-      <c r="L3" s="64"/>
-      <c r="M3" s="65" t="s">
+      <c r="L3" s="76"/>
+      <c r="M3" s="77" t="s">
         <v>125</v>
       </c>
-      <c r="N3" s="65"/>
-      <c r="O3" s="65"/>
+      <c r="N3" s="77"/>
+      <c r="O3" s="77"/>
     </row>
     <row r="4" spans="1:15" ht="19.5" customHeight="1" thickTop="1">
       <c r="A4" s="50" t="s">
@@ -4979,14 +4979,14 @@
       <c r="F36" s="38"/>
       <c r="G36" s="38"/>
       <c r="H36" s="38"/>
-      <c r="I36" s="53" t="s">
+      <c r="I36" s="78" t="s">
         <v>12</v>
       </c>
-      <c r="J36" s="53"/>
+      <c r="J36" s="78"/>
       <c r="K36" s="38"/>
       <c r="L36" s="38"/>
-      <c r="M36" s="53"/>
-      <c r="N36" s="53"/>
+      <c r="M36" s="78"/>
+      <c r="N36" s="78"/>
       <c r="O36" s="41"/>
     </row>
     <row r="37" spans="1:15" ht="19.5" customHeight="1">
@@ -5004,13 +5004,13 @@
       <c r="F37" s="38"/>
       <c r="G37" s="38"/>
       <c r="H37" s="38"/>
-      <c r="I37" s="53"/>
-      <c r="J37" s="53"/>
-      <c r="K37" s="53"/>
-      <c r="L37" s="53"/>
-      <c r="M37" s="53"/>
-      <c r="N37" s="53"/>
-      <c r="O37" s="53"/>
+      <c r="I37" s="78"/>
+      <c r="J37" s="78"/>
+      <c r="K37" s="78"/>
+      <c r="L37" s="78"/>
+      <c r="M37" s="78"/>
+      <c r="N37" s="78"/>
+      <c r="O37" s="78"/>
     </row>
     <row r="38" spans="1:15" ht="19.5" customHeight="1">
       <c r="A38" s="45" t="s">
@@ -5027,15 +5027,15 @@
       <c r="F38" s="38"/>
       <c r="G38" s="38"/>
       <c r="H38" s="38"/>
-      <c r="I38" s="55" t="s">
+      <c r="I38" s="80" t="s">
         <v>8</v>
       </c>
-      <c r="J38" s="55"/>
-      <c r="K38" s="55"/>
-      <c r="L38" s="55"/>
-      <c r="M38" s="55"/>
-      <c r="N38" s="55"/>
-      <c r="O38" s="56"/>
+      <c r="J38" s="80"/>
+      <c r="K38" s="80"/>
+      <c r="L38" s="80"/>
+      <c r="M38" s="80"/>
+      <c r="N38" s="80"/>
+      <c r="O38" s="81"/>
     </row>
     <row r="39" spans="1:15" ht="19.5" customHeight="1">
       <c r="A39" s="45" t="s">
@@ -5058,13 +5058,13 @@
       <c r="J39" s="40" t="s">
         <v>9</v>
       </c>
-      <c r="K39" s="53" t="s">
+      <c r="K39" s="78" t="s">
         <v>10</v>
       </c>
-      <c r="L39" s="53"/>
-      <c r="M39" s="53"/>
-      <c r="N39" s="53"/>
-      <c r="O39" s="57"/>
+      <c r="L39" s="78"/>
+      <c r="M39" s="78"/>
+      <c r="N39" s="78"/>
+      <c r="O39" s="82"/>
     </row>
     <row r="40" spans="1:15" ht="19.5" customHeight="1">
       <c r="A40" s="45" t="s">
@@ -5089,7 +5089,7 @@
       <c r="L40" s="38"/>
       <c r="M40" s="38"/>
       <c r="N40" s="38"/>
-      <c r="O40" s="57"/>
+      <c r="O40" s="82"/>
     </row>
     <row r="41" spans="1:15" ht="19.5" customHeight="1">
       <c r="A41" s="45" t="s">
@@ -5114,7 +5114,7 @@
       <c r="L41" s="38"/>
       <c r="M41" s="38"/>
       <c r="N41" s="38"/>
-      <c r="O41" s="57"/>
+      <c r="O41" s="82"/>
     </row>
     <row r="42" spans="1:15" ht="19.5" customHeight="1">
       <c r="A42" s="45" t="s">
@@ -5139,7 +5139,7 @@
       <c r="L42" s="38"/>
       <c r="M42" s="38"/>
       <c r="N42" s="38"/>
-      <c r="O42" s="57"/>
+      <c r="O42" s="82"/>
     </row>
     <row r="43" spans="1:15" ht="19.5" customHeight="1">
       <c r="A43" s="45" t="s">
@@ -5164,7 +5164,7 @@
       <c r="L43" s="38"/>
       <c r="M43" s="38"/>
       <c r="N43" s="38"/>
-      <c r="O43" s="57"/>
+      <c r="O43" s="82"/>
     </row>
     <row r="44" spans="1:15" ht="19.5" customHeight="1">
       <c r="A44" s="44" t="s">
@@ -5189,7 +5189,7 @@
       <c r="L44" s="38"/>
       <c r="M44" s="38"/>
       <c r="N44" s="38"/>
-      <c r="O44" s="57"/>
+      <c r="O44" s="82"/>
     </row>
     <row r="45" spans="1:15" ht="19.5" customHeight="1">
       <c r="A45" s="45" t="s">
@@ -5214,7 +5214,7 @@
       <c r="L45" s="38"/>
       <c r="M45" s="38"/>
       <c r="N45" s="38"/>
-      <c r="O45" s="57"/>
+      <c r="O45" s="82"/>
     </row>
     <row r="46" spans="1:15" ht="19.5" customHeight="1">
       <c r="A46" s="45"/>
@@ -5233,7 +5233,7 @@
       <c r="L46" s="38"/>
       <c r="M46" s="38"/>
       <c r="N46" s="38"/>
-      <c r="O46" s="57"/>
+      <c r="O46" s="82"/>
     </row>
     <row r="47" spans="1:15" ht="19.5" customHeight="1">
       <c r="A47" s="45"/>
@@ -5252,7 +5252,7 @@
       <c r="L47" s="38"/>
       <c r="M47" s="38"/>
       <c r="N47" s="38"/>
-      <c r="O47" s="57"/>
+      <c r="O47" s="82"/>
     </row>
     <row r="48" spans="1:15" ht="19.5" customHeight="1">
       <c r="A48" s="44"/>
@@ -5271,47 +5271,47 @@
       <c r="L48" s="38"/>
       <c r="M48" s="38"/>
       <c r="N48" s="38"/>
-      <c r="O48" s="58"/>
+      <c r="O48" s="83"/>
     </row>
     <row r="49" spans="1:16">
-      <c r="A49" s="66" t="s">
+      <c r="A49" s="53" t="s">
         <v>107</v>
       </c>
-      <c r="B49" s="67"/>
-      <c r="C49" s="67"/>
+      <c r="B49" s="54"/>
+      <c r="C49" s="54"/>
       <c r="D49" s="32"/>
-      <c r="E49" s="70" t="s">
+      <c r="E49" s="57" t="s">
         <v>108</v>
       </c>
-      <c r="F49" s="70"/>
-      <c r="G49" s="70"/>
-      <c r="H49" s="70"/>
-      <c r="I49" s="70"/>
-      <c r="J49" s="70"/>
-      <c r="K49" s="70"/>
+      <c r="F49" s="57"/>
+      <c r="G49" s="57"/>
+      <c r="H49" s="57"/>
+      <c r="I49" s="57"/>
+      <c r="J49" s="57"/>
+      <c r="K49" s="57"/>
       <c r="L49" s="32"/>
-      <c r="M49" s="72" t="s">
+      <c r="M49" s="59" t="s">
         <v>106</v>
       </c>
-      <c r="N49" s="72"/>
-      <c r="O49" s="73"/>
+      <c r="N49" s="59"/>
+      <c r="O49" s="60"/>
     </row>
     <row r="50" spans="1:16" ht="15.75" customHeight="1">
-      <c r="A50" s="68"/>
-      <c r="B50" s="69"/>
-      <c r="C50" s="69"/>
+      <c r="A50" s="55"/>
+      <c r="B50" s="56"/>
+      <c r="C50" s="56"/>
       <c r="D50" s="33"/>
-      <c r="E50" s="71"/>
-      <c r="F50" s="71"/>
-      <c r="G50" s="71"/>
-      <c r="H50" s="71"/>
-      <c r="I50" s="71"/>
-      <c r="J50" s="71"/>
-      <c r="K50" s="71"/>
+      <c r="E50" s="58"/>
+      <c r="F50" s="58"/>
+      <c r="G50" s="58"/>
+      <c r="H50" s="58"/>
+      <c r="I50" s="58"/>
+      <c r="J50" s="58"/>
+      <c r="K50" s="58"/>
       <c r="L50" s="33"/>
-      <c r="M50" s="74"/>
-      <c r="N50" s="74"/>
-      <c r="O50" s="75"/>
+      <c r="M50" s="61"/>
+      <c r="N50" s="61"/>
+      <c r="O50" s="62"/>
     </row>
     <row r="51" spans="1:16">
       <c r="A51" s="29"/>
@@ -5331,27 +5331,27 @@
       <c r="O51" s="30"/>
     </row>
     <row r="52" spans="1:16">
-      <c r="A52" s="76" t="s">
+      <c r="A52" s="63" t="s">
         <v>112</v>
       </c>
-      <c r="B52" s="76"/>
-      <c r="C52" s="76"/>
+      <c r="B52" s="63"/>
+      <c r="C52" s="63"/>
       <c r="D52" s="35"/>
       <c r="E52" s="29"/>
       <c r="F52" s="29"/>
-      <c r="G52" s="78" t="s">
+      <c r="G52" s="65" t="s">
         <v>114</v>
       </c>
-      <c r="H52" s="79"/>
-      <c r="I52" s="80"/>
+      <c r="H52" s="66"/>
+      <c r="I52" s="67"/>
       <c r="J52" s="29"/>
       <c r="K52" s="29"/>
       <c r="L52" s="35"/>
-      <c r="M52" s="77" t="s">
+      <c r="M52" s="64" t="s">
         <v>113</v>
       </c>
-      <c r="N52" s="77"/>
-      <c r="O52" s="77"/>
+      <c r="N52" s="64"/>
+      <c r="O52" s="64"/>
     </row>
     <row r="53" spans="1:16">
       <c r="A53" s="34"/>
@@ -5360,9 +5360,9 @@
       <c r="D53" s="35"/>
       <c r="E53" s="29"/>
       <c r="F53" s="29"/>
-      <c r="G53" s="81"/>
-      <c r="H53" s="82"/>
-      <c r="I53" s="83"/>
+      <c r="G53" s="68"/>
+      <c r="H53" s="69"/>
+      <c r="I53" s="70"/>
       <c r="J53" s="29"/>
       <c r="K53" s="29"/>
       <c r="L53" s="35"/>
@@ -5375,18 +5375,6 @@
     </row>
   </sheetData>
   <mergeCells count="19">
-    <mergeCell ref="A49:C50"/>
-    <mergeCell ref="E49:K50"/>
-    <mergeCell ref="M49:O50"/>
-    <mergeCell ref="A52:C52"/>
-    <mergeCell ref="M52:O52"/>
-    <mergeCell ref="G52:I53"/>
-    <mergeCell ref="F1:J1"/>
-    <mergeCell ref="B3:D3"/>
-    <mergeCell ref="K1:O1"/>
-    <mergeCell ref="A1:E1"/>
-    <mergeCell ref="K3:L3"/>
-    <mergeCell ref="M3:O3"/>
     <mergeCell ref="I36:J36"/>
     <mergeCell ref="M36:N36"/>
     <mergeCell ref="A2:O2"/>
@@ -5394,6 +5382,18 @@
     <mergeCell ref="I38:N38"/>
     <mergeCell ref="O38:O48"/>
     <mergeCell ref="K39:N39"/>
+    <mergeCell ref="F1:J1"/>
+    <mergeCell ref="B3:D3"/>
+    <mergeCell ref="K1:O1"/>
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="K3:L3"/>
+    <mergeCell ref="M3:O3"/>
+    <mergeCell ref="A49:C50"/>
+    <mergeCell ref="E49:K50"/>
+    <mergeCell ref="M49:O50"/>
+    <mergeCell ref="A52:C52"/>
+    <mergeCell ref="M52:O52"/>
+    <mergeCell ref="G52:I53"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0" right="0" top="0" bottom="0.2" header="0" footer="0"/>
@@ -5430,73 +5430,73 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="32.25" customHeight="1">
-      <c r="A1" s="86" t="s">
+      <c r="A1" s="96" t="s">
         <v>100</v>
       </c>
-      <c r="B1" s="87"/>
-      <c r="C1" s="87"/>
-      <c r="D1" s="87"/>
-      <c r="E1" s="87"/>
-      <c r="F1" s="88" t="s">
+      <c r="B1" s="97"/>
+      <c r="C1" s="97"/>
+      <c r="D1" s="97"/>
+      <c r="E1" s="97"/>
+      <c r="F1" s="98" t="s">
         <v>83</v>
       </c>
-      <c r="G1" s="88"/>
-      <c r="H1" s="88"/>
-      <c r="I1" s="88"/>
-      <c r="J1" s="88"/>
-      <c r="K1" s="86" t="s">
+      <c r="G1" s="98"/>
+      <c r="H1" s="98"/>
+      <c r="I1" s="98"/>
+      <c r="J1" s="98"/>
+      <c r="K1" s="96" t="s">
         <v>85</v>
       </c>
-      <c r="L1" s="86"/>
-      <c r="M1" s="86"/>
-      <c r="N1" s="86"/>
-      <c r="O1" s="86"/>
+      <c r="L1" s="96"/>
+      <c r="M1" s="96"/>
+      <c r="N1" s="96"/>
+      <c r="O1" s="96"/>
     </row>
     <row r="2" spans="1:15">
-      <c r="A2" s="89" t="s">
+      <c r="A2" s="99" t="s">
         <v>64</v>
       </c>
-      <c r="B2" s="89"/>
-      <c r="C2" s="89"/>
-      <c r="D2" s="89"/>
-      <c r="E2" s="89"/>
-      <c r="F2" s="89"/>
-      <c r="G2" s="89"/>
-      <c r="H2" s="89"/>
-      <c r="I2" s="89"/>
-      <c r="J2" s="89"/>
-      <c r="K2" s="89"/>
-      <c r="L2" s="89"/>
-      <c r="M2" s="89"/>
-      <c r="N2" s="89"/>
-      <c r="O2" s="89"/>
+      <c r="B2" s="99"/>
+      <c r="C2" s="99"/>
+      <c r="D2" s="99"/>
+      <c r="E2" s="99"/>
+      <c r="F2" s="99"/>
+      <c r="G2" s="99"/>
+      <c r="H2" s="99"/>
+      <c r="I2" s="99"/>
+      <c r="J2" s="99"/>
+      <c r="K2" s="99"/>
+      <c r="L2" s="99"/>
+      <c r="M2" s="99"/>
+      <c r="N2" s="99"/>
+      <c r="O2" s="99"/>
     </row>
     <row r="3" spans="1:15" s="5" customFormat="1" ht="14.25" customHeight="1">
-      <c r="A3" s="90" t="s">
+      <c r="A3" s="100" t="s">
         <v>65</v>
       </c>
-      <c r="B3" s="90"/>
-      <c r="C3" s="90"/>
-      <c r="D3" s="90"/>
-      <c r="E3" s="90"/>
-      <c r="F3" s="90"/>
-      <c r="G3" s="90"/>
-      <c r="H3" s="90"/>
-      <c r="I3" s="90"/>
-      <c r="J3" s="90"/>
-      <c r="K3" s="90"/>
-      <c r="L3" s="90"/>
-      <c r="M3" s="90"/>
-      <c r="N3" s="90"/>
-      <c r="O3" s="90"/>
+      <c r="B3" s="100"/>
+      <c r="C3" s="100"/>
+      <c r="D3" s="100"/>
+      <c r="E3" s="100"/>
+      <c r="F3" s="100"/>
+      <c r="G3" s="100"/>
+      <c r="H3" s="100"/>
+      <c r="I3" s="100"/>
+      <c r="J3" s="100"/>
+      <c r="K3" s="100"/>
+      <c r="L3" s="100"/>
+      <c r="M3" s="100"/>
+      <c r="N3" s="100"/>
+      <c r="O3" s="100"/>
     </row>
     <row r="4" spans="1:15" ht="21.75" customHeight="1" thickBot="1">
-      <c r="A4" s="84" t="s">
+      <c r="A4" s="94" t="s">
         <v>69</v>
       </c>
-      <c r="B4" s="84"/>
-      <c r="C4" s="84"/>
-      <c r="D4" s="84"/>
+      <c r="B4" s="94"/>
+      <c r="C4" s="94"/>
+      <c r="D4" s="94"/>
       <c r="E4" s="2"/>
       <c r="F4" s="2"/>
       <c r="G4" s="2"/>
@@ -5504,12 +5504,12 @@
       <c r="I4" s="1"/>
       <c r="J4" s="1"/>
       <c r="K4" s="1"/>
-      <c r="L4" s="85" t="s">
+      <c r="L4" s="95" t="s">
         <v>101</v>
       </c>
-      <c r="M4" s="85"/>
-      <c r="N4" s="85"/>
-      <c r="O4" s="85"/>
+      <c r="M4" s="95"/>
+      <c r="N4" s="95"/>
+      <c r="O4" s="95"/>
     </row>
     <row r="5" spans="1:15" ht="16.5" thickTop="1">
       <c r="A5" s="6" t="s">
@@ -6613,14 +6613,14 @@
       <c r="F44" s="4"/>
       <c r="G44" s="4"/>
       <c r="H44" s="4"/>
-      <c r="I44" s="91" t="s">
+      <c r="I44" s="88" t="s">
         <v>12</v>
       </c>
-      <c r="J44" s="92"/>
+      <c r="J44" s="89"/>
       <c r="K44" s="4"/>
       <c r="L44" s="4"/>
-      <c r="M44" s="91"/>
-      <c r="N44" s="91"/>
+      <c r="M44" s="88"/>
+      <c r="N44" s="88"/>
       <c r="O44" s="16"/>
     </row>
     <row r="45" spans="1:15" ht="15.95" customHeight="1">
@@ -6638,13 +6638,13 @@
       <c r="F45" s="4"/>
       <c r="G45" s="4"/>
       <c r="H45" s="4"/>
-      <c r="I45" s="91"/>
-      <c r="J45" s="91"/>
-      <c r="K45" s="91"/>
-      <c r="L45" s="91"/>
-      <c r="M45" s="91"/>
-      <c r="N45" s="91"/>
-      <c r="O45" s="91"/>
+      <c r="I45" s="88"/>
+      <c r="J45" s="88"/>
+      <c r="K45" s="88"/>
+      <c r="L45" s="88"/>
+      <c r="M45" s="88"/>
+      <c r="N45" s="88"/>
+      <c r="O45" s="88"/>
     </row>
     <row r="46" spans="1:15" ht="15.95" customHeight="1">
       <c r="A46" s="9" t="s">
@@ -6661,15 +6661,15 @@
       <c r="F46" s="4"/>
       <c r="G46" s="4"/>
       <c r="H46" s="4"/>
-      <c r="I46" s="93" t="s">
+      <c r="I46" s="90" t="s">
         <v>8</v>
       </c>
-      <c r="J46" s="93"/>
-      <c r="K46" s="93"/>
-      <c r="L46" s="93"/>
-      <c r="M46" s="93"/>
-      <c r="N46" s="93"/>
-      <c r="O46" s="94"/>
+      <c r="J46" s="90"/>
+      <c r="K46" s="90"/>
+      <c r="L46" s="90"/>
+      <c r="M46" s="90"/>
+      <c r="N46" s="90"/>
+      <c r="O46" s="91"/>
     </row>
     <row r="47" spans="1:15" ht="15.95" customHeight="1">
       <c r="A47" s="9" t="s">
@@ -6692,13 +6692,13 @@
       <c r="J47" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="K47" s="91" t="s">
+      <c r="K47" s="88" t="s">
         <v>10</v>
       </c>
-      <c r="L47" s="91"/>
-      <c r="M47" s="91"/>
-      <c r="N47" s="91"/>
-      <c r="O47" s="95"/>
+      <c r="L47" s="88"/>
+      <c r="M47" s="88"/>
+      <c r="N47" s="88"/>
+      <c r="O47" s="92"/>
     </row>
     <row r="48" spans="1:15" ht="15.95" customHeight="1">
       <c r="A48" s="9" t="s">
@@ -6723,7 +6723,7 @@
       <c r="L48" s="4"/>
       <c r="M48" s="4"/>
       <c r="N48" s="4"/>
-      <c r="O48" s="95"/>
+      <c r="O48" s="92"/>
     </row>
     <row r="49" spans="1:15" ht="15.95" customHeight="1">
       <c r="A49" s="9" t="s">
@@ -6748,7 +6748,7 @@
       <c r="L49" s="4"/>
       <c r="M49" s="4"/>
       <c r="N49" s="4"/>
-      <c r="O49" s="95"/>
+      <c r="O49" s="92"/>
     </row>
     <row r="50" spans="1:15" ht="15.95" customHeight="1">
       <c r="A50" s="4" t="s">
@@ -6773,7 +6773,7 @@
       <c r="L50" s="4"/>
       <c r="M50" s="4"/>
       <c r="N50" s="4"/>
-      <c r="O50" s="95"/>
+      <c r="O50" s="92"/>
     </row>
     <row r="51" spans="1:15" ht="15.95" customHeight="1">
       <c r="A51" s="4" t="s">
@@ -6798,7 +6798,7 @@
       <c r="L51" s="4"/>
       <c r="M51" s="4"/>
       <c r="N51" s="4"/>
-      <c r="O51" s="95"/>
+      <c r="O51" s="92"/>
     </row>
     <row r="52" spans="1:15" ht="15.95" customHeight="1">
       <c r="A52" s="4" t="s">
@@ -6823,7 +6823,7 @@
       <c r="L52" s="4"/>
       <c r="M52" s="4"/>
       <c r="N52" s="4"/>
-      <c r="O52" s="95"/>
+      <c r="O52" s="92"/>
     </row>
     <row r="53" spans="1:15" ht="15.95" customHeight="1">
       <c r="A53" s="4" t="s">
@@ -6848,7 +6848,7 @@
       <c r="L53" s="4"/>
       <c r="M53" s="4"/>
       <c r="N53" s="4"/>
-      <c r="O53" s="95"/>
+      <c r="O53" s="92"/>
     </row>
     <row r="54" spans="1:15" ht="15.95" customHeight="1">
       <c r="A54" s="4" t="s">
@@ -6873,7 +6873,7 @@
       <c r="L54" s="4"/>
       <c r="M54" s="4"/>
       <c r="N54" s="4"/>
-      <c r="O54" s="95"/>
+      <c r="O54" s="92"/>
     </row>
     <row r="55" spans="1:15" ht="15.95" customHeight="1">
       <c r="A55" s="4" t="s">
@@ -6898,7 +6898,7 @@
       <c r="L55" s="4"/>
       <c r="M55" s="4"/>
       <c r="N55" s="4"/>
-      <c r="O55" s="95"/>
+      <c r="O55" s="92"/>
     </row>
     <row r="56" spans="1:15" ht="15.95" customHeight="1">
       <c r="A56" s="9" t="s">
@@ -6923,7 +6923,7 @@
       <c r="L56" s="4"/>
       <c r="M56" s="4"/>
       <c r="N56" s="4"/>
-      <c r="O56" s="96"/>
+      <c r="O56" s="93"/>
     </row>
     <row r="57" spans="1:15">
       <c r="A57" s="17"/>
@@ -6943,49 +6943,49 @@
       <c r="O57" s="20"/>
     </row>
     <row r="58" spans="1:15">
-      <c r="A58" s="97" t="s">
+      <c r="A58" s="84" t="s">
         <v>60</v>
       </c>
-      <c r="B58" s="97"/>
-      <c r="C58" s="97"/>
+      <c r="B58" s="84"/>
+      <c r="C58" s="84"/>
       <c r="D58" s="21"/>
       <c r="E58" s="22"/>
-      <c r="F58" s="100" t="s">
+      <c r="F58" s="87" t="s">
         <v>96</v>
       </c>
-      <c r="G58" s="100"/>
-      <c r="H58" s="100"/>
-      <c r="I58" s="100"/>
-      <c r="J58" s="100"/>
-      <c r="K58" s="100"/>
+      <c r="G58" s="87"/>
+      <c r="H58" s="87"/>
+      <c r="I58" s="87"/>
+      <c r="J58" s="87"/>
+      <c r="K58" s="87"/>
       <c r="L58" s="21"/>
       <c r="M58" s="22"/>
-      <c r="N58" s="98" t="s">
+      <c r="N58" s="85" t="s">
         <v>62</v>
       </c>
-      <c r="O58" s="98"/>
+      <c r="O58" s="85"/>
     </row>
     <row r="59" spans="1:15">
-      <c r="A59" s="99"/>
-      <c r="B59" s="99"/>
-      <c r="C59" s="99"/>
+      <c r="A59" s="86"/>
+      <c r="B59" s="86"/>
+      <c r="C59" s="86"/>
       <c r="D59" s="23"/>
       <c r="E59" s="17"/>
-      <c r="F59" s="100"/>
-      <c r="G59" s="100"/>
-      <c r="H59" s="100"/>
-      <c r="I59" s="100"/>
-      <c r="J59" s="100"/>
-      <c r="K59" s="100"/>
+      <c r="F59" s="87"/>
+      <c r="G59" s="87"/>
+      <c r="H59" s="87"/>
+      <c r="I59" s="87"/>
+      <c r="J59" s="87"/>
+      <c r="K59" s="87"/>
       <c r="L59" s="23"/>
       <c r="M59" s="17"/>
-      <c r="N59" s="99"/>
-      <c r="O59" s="99"/>
+      <c r="N59" s="86"/>
+      <c r="O59" s="86"/>
     </row>
     <row r="60" spans="1:15">
-      <c r="A60" s="99"/>
-      <c r="B60" s="99"/>
-      <c r="C60" s="99"/>
+      <c r="A60" s="86"/>
+      <c r="B60" s="86"/>
+      <c r="C60" s="86"/>
       <c r="D60" s="23"/>
       <c r="E60" s="17"/>
       <c r="F60" s="17"/>
@@ -6996,15 +6996,15 @@
       <c r="K60" s="23"/>
       <c r="L60" s="23"/>
       <c r="M60" s="17"/>
-      <c r="N60" s="99"/>
-      <c r="O60" s="99"/>
+      <c r="N60" s="86"/>
+      <c r="O60" s="86"/>
     </row>
     <row r="61" spans="1:15">
-      <c r="A61" s="97" t="s">
+      <c r="A61" s="84" t="s">
         <v>61</v>
       </c>
-      <c r="B61" s="97"/>
-      <c r="C61" s="97"/>
+      <c r="B61" s="84"/>
+      <c r="C61" s="84"/>
       <c r="D61" s="21"/>
       <c r="E61" s="21"/>
       <c r="F61" s="21"/>
@@ -7015,11 +7015,24 @@
       <c r="K61" s="21"/>
       <c r="L61" s="21"/>
       <c r="M61" s="25"/>
-      <c r="N61" s="98"/>
-      <c r="O61" s="98"/>
+      <c r="N61" s="85"/>
+      <c r="O61" s="85"/>
     </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="A4:D4"/>
+    <mergeCell ref="L4:O4"/>
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="F1:J1"/>
+    <mergeCell ref="K1:O1"/>
+    <mergeCell ref="A2:O2"/>
+    <mergeCell ref="A3:O3"/>
+    <mergeCell ref="I44:J44"/>
+    <mergeCell ref="M44:N44"/>
+    <mergeCell ref="I45:O45"/>
+    <mergeCell ref="I46:N46"/>
+    <mergeCell ref="O46:O56"/>
+    <mergeCell ref="K47:N47"/>
     <mergeCell ref="A58:C58"/>
     <mergeCell ref="N58:O58"/>
     <mergeCell ref="A59:C60"/>
@@ -7027,19 +7040,6 @@
     <mergeCell ref="A61:C61"/>
     <mergeCell ref="N61:O61"/>
     <mergeCell ref="F58:K59"/>
-    <mergeCell ref="I44:J44"/>
-    <mergeCell ref="M44:N44"/>
-    <mergeCell ref="I45:O45"/>
-    <mergeCell ref="I46:N46"/>
-    <mergeCell ref="O46:O56"/>
-    <mergeCell ref="K47:N47"/>
-    <mergeCell ref="A4:D4"/>
-    <mergeCell ref="L4:O4"/>
-    <mergeCell ref="A1:E1"/>
-    <mergeCell ref="F1:J1"/>
-    <mergeCell ref="K1:O1"/>
-    <mergeCell ref="A2:O2"/>
-    <mergeCell ref="A3:O3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
